--- a/0607.xlsx
+++ b/0607.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portland-my.sharepoint.com/personal/shilonyao3-c_my_cityu_edu_hk/Documents/Paper/Ongoing/ICIA2025/Code/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4DA82427541F7ACA7EB8AE100D29B66AE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433D9785-AC9C-4A1E-A8A6-13CB568EB393}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,9 +29,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
+    <t>F1-C2</t>
+  </si>
+  <si>
+    <t>F2-C4</t>
+  </si>
+  <si>
+    <t>F3-C6</t>
+  </si>
+  <si>
+    <t>ForceSensor-Fz（minus）</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
+    <t>Direction-Fz</t>
+  </si>
+  <si>
+    <t>Height-Fz</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
@@ -56,30 +65,21 @@
     <t>tip</t>
   </si>
   <si>
-    <t>Direction-Fz</t>
-  </si>
-  <si>
-    <t>Height-Fz</t>
-  </si>
-  <si>
-    <t>F1-C2</t>
-  </si>
-  <si>
-    <t>F2-C4</t>
-  </si>
-  <si>
-    <t>F3-C6</t>
-  </si>
-  <si>
     <t>[array([204.20483398,  51.4858284 , 304.21661377,   1.        ]), array([205.44770813,  49.36790466, 287.93499756,   1.        ]), array([206.27862549,  46.35824203, 273.48843384,   1.        ]), array([205.74836731,  41.21003342, 251.43263245,   1.        ]), array([206.8684082 ,  39.4029007 , 234.95046997,   1.        ])]</t>
   </si>
   <si>
+    <t>(-100,-100,-100)</t>
+  </si>
+  <si>
     <t>[array([204.20495605,  51.48629379, 304.23535156,   1.        ]), array([205.27163696,  50.03791046, 287.66079712,   1.        ]), array([205.60676575,  48.51252747, 272.88012695,   1.        ]), array([204.69551086,  45.96968079, 250.4599762 ,   1.        ]), array([205.81442261,  45.5399437 , 234.04666138,   1.        ])]</t>
   </si>
   <si>
     <t>[array([202.60458374,  51.9371376 , 304.34262085,   1.        ]), array([205.2215271 ,  48.87391281, 288.00808716,   1.        ]), array([205.85786438,  44.92573166, 273.80078125,   1.        ]), array([205.16674805,  37.8228302 , 252.24429321,   1.        ]), array([206.04322815,  34.89854431, 235.92381287,   1.        ])]</t>
   </si>
   <si>
+    <t>[array([202.7882843 ,  51.90736008, 304.34286499,   1.        ]), array([205.45889282,  48.18132019, 288.29794312,   1.        ]), array([206.4631958 ,  42.81309128, 274.70895386,   1.        ]), array([206.04821777,  33.0999794 , 254.14831543,   1.        ]), array([207.16751099,  28.51888084, 238.12016296,   1.        ])]</t>
+  </si>
+  <si>
     <t>[array([202.76983643,  51.91317368, 304.36175537,   1.        ]), array([205.56121826,  47.25748825, 288.66390991,   1.        ]), array([206.40167236,  40.19762421, 275.9251709 ,   1.        ]), array([206.05485535,  27.38044548, 257.08215332,   1.        ]), array([206.9564209 ,  20.7111702 , 241.69628906,   1.        ])]</t>
   </si>
   <si>
@@ -95,9 +95,6 @@
     <t>[array([204.16886902,  51.49520111, 304.21539307,   1.        ]), array([205.02424622,  54.16797638, 287.42840576,   1.        ]), array([204.76837158,  59.74927902, 273.42929077,   1.        ]), array([203.52627563,  68.70052338, 253.12458801,   1.        ]), array([205.25262451,  73.74480438, 238.19790649,   1.        ])]</t>
   </si>
   <si>
-    <t>(-100,-100,-100)</t>
-  </si>
-  <si>
     <t>[array([204.24485779,  51.4885788 , 304.20922852,   1.        ]), array([205.19465637,  55.29118729, 287.7074585 ,   1.        ]), array([205.14886475,  62.62154007, 274.54052734,   1.        ]), array([204.48696899,  73.98564148, 255.66908264,   1.        ]), array([206.92910767,  80.19875336, 241.39717102,   1.        ])]</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>[array([204.13876343,  51.51407242, 304.24490356,   1.        ]), array([207.31834412,  53.36731339, 289.30499268,   1.        ]), array([211.58657837,  57.22446442, 276.21142578,   1.        ]), array([218.43476868,  63.40566254, 255.8397522 ,   1.        ]), array([224.94763184,  67.32766724, 241.14906311,   1.        ])]</t>
   </si>
   <si>
-    <t>ForceSensor-Fz（minus）</t>
-  </si>
-  <si>
     <t>[array([204.12976074,  51.49440765, 304.21481323,   1.        ]), array([206.7432251 ,  52.45085907, 288.68563843,   1.        ]), array([209.94619751,  54.66757965, 274.66827393,   1.        ]), array([214.33001709,  58.0331459 , 253.01972961,   1.        ]), array([215.46028137,  61.78721237, 237.13238525,   1.        ])]</t>
   </si>
   <si>
@@ -435,41 +429,373 @@
   </si>
   <si>
     <t>[array([203.36889648,  51.72346878, 304.17532349,   1.        ]), array([206.23509216,  50.15304565, 288.99346924,   1.        ]), array([214.13305664,  40.00494766, 254.39073181,   1.        ]), array([9.999999e+06, 9.999999e+06, 9.999999e+06, 1.000000e+00]), array([9.999999e+06, 9.999999e+06, 9.999999e+06, 1.000000e+00])]</t>
-  </si>
-  <si>
-    <t>[array([202.7882843 ,  51.90736008, 304.34286499,   1.        ]), array([205.45889282,  48.18132019, 288.29794312,   1.        ]), array([206.4631958 ,  42.81309128, 274.70895386,   1.        ]), array([206.04821777,  33.0999794 , 254.14831543,   1.        ]), array([207.16751099,  28.51888084, 238.12016296,   1.        ])]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -477,31 +803,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -582,7 +1190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -756,88 +1364,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="5" max="5" width="144.77734375" customWidth="1"/>
+    <col min="5" max="5" width="144.776785714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-10</v>
       </c>
@@ -851,7 +1454,7 @@
         <v>0.1691</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -860,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>-30</v>
       </c>
@@ -874,10 +1477,10 @@
         <v>-87</v>
       </c>
       <c r="D3">
-        <v>6.8500000000000005E-2</v>
+        <v>0.0685</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -886,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -900,10 +1503,10 @@
         <v>-119</v>
       </c>
       <c r="D4">
-        <v>0.24879999999999999</v>
+        <v>0.2488</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -912,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
@@ -926,10 +1529,10 @@
         <v>-133</v>
       </c>
       <c r="D5">
-        <v>0.34360000000000002</v>
+        <v>0.3436</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -938,10 +1541,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -955,7 +1558,7 @@
         <v>0.4168</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -964,10 +1567,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>-183</v>
       </c>
@@ -978,10 +1581,10 @@
         <v>-58</v>
       </c>
       <c r="D7">
-        <v>0.10539999999999999</v>
+        <v>0.1054</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -990,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>-288</v>
       </c>
@@ -1004,10 +1607,10 @@
         <v>-47</v>
       </c>
       <c r="D8">
-        <v>0.21590000000000001</v>
+        <v>0.2159</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1016,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>-329</v>
       </c>
@@ -1030,10 +1633,10 @@
         <v>-47</v>
       </c>
       <c r="D9">
-        <v>0.25390000000000001</v>
+        <v>0.2539</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1042,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>-479</v>
       </c>
@@ -1056,10 +1659,10 @@
         <v>-33</v>
       </c>
       <c r="D10">
-        <v>0.41889999999999999</v>
+        <v>0.4189</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1068,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>-593</v>
       </c>
@@ -1082,10 +1685,10 @@
         <v>-26</v>
       </c>
       <c r="D11">
-        <v>0.52910000000000001</v>
+        <v>0.5291</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1094,10 +1697,10 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>-88</v>
       </c>
@@ -1108,10 +1711,10 @@
         <v>-33</v>
       </c>
       <c r="D12">
-        <v>9.5200000000000007E-2</v>
+        <v>0.0952</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1120,10 +1723,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>-146</v>
       </c>
@@ -1137,7 +1740,7 @@
         <v>0.1956</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1146,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>-149</v>
       </c>
@@ -1160,10 +1763,10 @@
         <v>-16</v>
       </c>
       <c r="D14">
-        <v>0.30780000000000002</v>
+        <v>0.3078</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1172,10 +1775,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>-148</v>
       </c>
@@ -1186,10 +1789,10 @@
         <v>-14</v>
       </c>
       <c r="D15">
-        <v>0.34860000000000002</v>
+        <v>0.3486</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1198,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>-147</v>
       </c>
@@ -1215,7 +1818,7 @@
         <v>0.41</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1224,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>-49</v>
       </c>
@@ -1238,10 +1841,10 @@
         <v>-46</v>
       </c>
       <c r="D17">
-        <v>4.1799999999999997E-2</v>
+        <v>0.0418</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1250,10 +1853,10 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -1264,10 +1867,10 @@
         <v>-46</v>
       </c>
       <c r="D18">
-        <v>0.14749999999999999</v>
+        <v>0.1475</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1276,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>-6</v>
       </c>
@@ -1290,10 +1893,10 @@
         <v>-56</v>
       </c>
       <c r="D19">
-        <v>0.20119999999999999</v>
+        <v>0.2012</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1302,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>-3</v>
       </c>
@@ -1319,7 +1922,7 @@
         <v>0.2787</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1328,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>-2</v>
       </c>
@@ -1345,7 +1948,7 @@
         <v>0.2984</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1354,10 +1957,10 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1368,10 +1971,10 @@
         <v>-54</v>
       </c>
       <c r="D22">
-        <v>0.34420000000000001</v>
+        <v>0.3442</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1380,10 +1983,10 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>-98</v>
       </c>
@@ -1394,10 +1997,10 @@
         <v>-36</v>
       </c>
       <c r="D23">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1406,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>-180</v>
       </c>
@@ -1420,10 +2023,10 @@
         <v>-23</v>
       </c>
       <c r="D24">
-        <v>0.16900000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -1432,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>-290</v>
       </c>
@@ -1449,7 +2052,7 @@
         <v>0.3075</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -1458,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>-381</v>
       </c>
@@ -1475,7 +2078,7 @@
         <v>0.4224</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -1484,10 +2087,10 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>-217</v>
       </c>
@@ -1498,10 +2101,10 @@
         <v>-11</v>
       </c>
       <c r="D27">
-        <v>0.21879999999999999</v>
+        <v>0.2188</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1510,10 +2113,10 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>-65</v>
       </c>
@@ -1524,10 +2127,10 @@
         <v>-62</v>
       </c>
       <c r="D28">
-        <v>3.7699999999999997E-2</v>
+        <v>0.0377</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1536,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>-39</v>
       </c>
@@ -1550,10 +2153,10 @@
         <v>-63</v>
       </c>
       <c r="D29">
-        <v>0.10390000000000001</v>
+        <v>0.1039</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1562,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>-33</v>
       </c>
@@ -1576,10 +2179,10 @@
         <v>-64</v>
       </c>
       <c r="D30">
-        <v>0.15989999999999999</v>
+        <v>0.1599</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1588,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>-15</v>
       </c>
@@ -1602,10 +2205,10 @@
         <v>-68</v>
       </c>
       <c r="D31">
-        <v>0.22670000000000001</v>
+        <v>0.2267</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1614,10 +2217,10 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>-8</v>
       </c>
@@ -1628,10 +2231,10 @@
         <v>-74</v>
       </c>
       <c r="D32">
-        <v>0.27429999999999999</v>
+        <v>0.2743</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1640,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>-4</v>
       </c>
@@ -1654,10 +2257,10 @@
         <v>-81</v>
       </c>
       <c r="D33">
-        <v>0.31019999999999998</v>
+        <v>0.3102</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1666,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>-4</v>
       </c>
@@ -1680,10 +2283,10 @@
         <v>-82</v>
       </c>
       <c r="D34">
-        <v>0.29480000000000001</v>
+        <v>0.2948</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1692,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>-4</v>
       </c>
@@ -1706,10 +2309,10 @@
         <v>-85</v>
       </c>
       <c r="D35">
-        <v>0.31430000000000002</v>
+        <v>0.3143</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1718,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>-3</v>
       </c>
@@ -1732,10 +2335,10 @@
         <v>-88</v>
       </c>
       <c r="D36">
-        <v>0.36649999999999999</v>
+        <v>0.3665</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1744,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>-3</v>
       </c>
@@ -1758,10 +2361,10 @@
         <v>-91</v>
       </c>
       <c r="D37">
-        <v>0.38719999999999999</v>
+        <v>0.3872</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1770,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1784,10 +2387,10 @@
         <v>-100</v>
       </c>
       <c r="D38">
-        <v>0.39529999999999998</v>
+        <v>0.3953</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1796,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1813,7 +2416,7 @@
         <v>0.4254</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1822,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1839,7 +2442,7 @@
         <v>0.4526</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1848,10 +2451,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1862,10 +2465,10 @@
         <v>-120</v>
       </c>
       <c r="D41">
-        <v>0.48430000000000001</v>
+        <v>0.4843</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1874,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1888,10 +2491,10 @@
         <v>-141</v>
       </c>
       <c r="D42">
-        <v>0.54039999999999999</v>
+        <v>0.5404</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1900,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>-3</v>
       </c>
@@ -1914,10 +2517,10 @@
         <v>-96</v>
       </c>
       <c r="D43">
-        <v>0.33889999999999998</v>
+        <v>0.3389</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1926,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1940,10 +2543,10 @@
         <v>-114</v>
       </c>
       <c r="D44">
-        <v>0.46150000000000002</v>
+        <v>0.4615</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1952,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>-14</v>
       </c>
@@ -1966,10 +2569,10 @@
         <v>-83</v>
       </c>
       <c r="D45">
-        <v>0.19470000000000001</v>
+        <v>0.1947</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1978,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>-20</v>
       </c>
@@ -1995,7 +2598,7 @@
         <v>0.1318</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2004,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>-136</v>
       </c>
@@ -2018,10 +2621,10 @@
         <v>-54</v>
       </c>
       <c r="D47">
-        <v>8.7499999999999994E-2</v>
+        <v>0.0875</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2030,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>-162</v>
       </c>
@@ -2044,10 +2647,10 @@
         <v>-50</v>
       </c>
       <c r="D48">
-        <v>0.15740000000000001</v>
+        <v>0.1574</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2056,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>-208</v>
       </c>
@@ -2073,7 +2676,7 @@
         <v>0.2135</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2082,10 +2685,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>-245</v>
       </c>
@@ -2096,10 +2699,10 @@
         <v>-42</v>
       </c>
       <c r="D50">
-        <v>0.27550000000000002</v>
+        <v>0.2755</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -2108,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>-294</v>
       </c>
@@ -2122,10 +2725,10 @@
         <v>-43</v>
       </c>
       <c r="D51">
-        <v>0.28810000000000002</v>
+        <v>0.2881</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2134,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>-308</v>
       </c>
@@ -2148,10 +2751,10 @@
         <v>-39</v>
       </c>
       <c r="D52">
-        <v>0.32950000000000002</v>
+        <v>0.3295</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2160,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>-308</v>
       </c>
@@ -2174,10 +2777,10 @@
         <v>-39</v>
       </c>
       <c r="D53">
-        <v>0.33739999999999998</v>
+        <v>0.3374</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -2186,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>-344</v>
       </c>
@@ -2200,10 +2803,10 @@
         <v>-28</v>
       </c>
       <c r="D54">
-        <v>0.34489999999999998</v>
+        <v>0.3449</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2212,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>-397</v>
       </c>
@@ -2229,7 +2832,7 @@
         <v>0.371</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2238,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>-460</v>
       </c>
@@ -2252,10 +2855,10 @@
         <v>-25</v>
       </c>
       <c r="D56">
-        <v>0.44640000000000002</v>
+        <v>0.4464</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2264,10 +2867,10 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>-495</v>
       </c>
@@ -2278,10 +2881,10 @@
         <v>-21</v>
       </c>
       <c r="D57">
-        <v>0.47470000000000001</v>
+        <v>0.4747</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2290,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>-509</v>
       </c>
@@ -2304,10 +2907,10 @@
         <v>-21</v>
       </c>
       <c r="D58">
-        <v>0.54310000000000003</v>
+        <v>0.5431</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2316,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>-709</v>
       </c>
@@ -2330,10 +2933,10 @@
         <v>-15</v>
       </c>
       <c r="D59">
-        <v>0.66010000000000002</v>
+        <v>0.6601</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2342,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>-412</v>
       </c>
@@ -2356,10 +2959,10 @@
         <v>-21</v>
       </c>
       <c r="D60">
-        <v>0.39340000000000003</v>
+        <v>0.3934</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2368,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>-358</v>
       </c>
@@ -2385,7 +2988,7 @@
         <v>0.32</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2394,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>-271</v>
       </c>
@@ -2411,7 +3014,7 @@
         <v>0.2467</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2420,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>-222</v>
       </c>
@@ -2434,10 +3037,10 @@
         <v>-31</v>
       </c>
       <c r="D63">
-        <v>0.19900000000000001</v>
+        <v>0.199</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2446,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>-203</v>
       </c>
@@ -2460,10 +3063,10 @@
         <v>-34</v>
       </c>
       <c r="D64">
-        <v>0.14630000000000001</v>
+        <v>0.1463</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2472,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>-165</v>
       </c>
@@ -2486,10 +3089,10 @@
         <v>-38</v>
       </c>
       <c r="D65">
-        <v>7.8799999999999995E-2</v>
+        <v>0.0788</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -2498,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>-52</v>
       </c>
@@ -2512,10 +3115,10 @@
         <v>-59</v>
       </c>
       <c r="D66">
-        <v>2.8199999999999999E-2</v>
+        <v>0.0282</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -2524,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>-36</v>
       </c>
@@ -2538,10 +3141,10 @@
         <v>-59</v>
       </c>
       <c r="D67">
-        <v>7.1199999999999999E-2</v>
+        <v>0.0712</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2550,10 +3153,10 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>-16</v>
       </c>
@@ -2564,10 +3167,10 @@
         <v>-66</v>
       </c>
       <c r="D68">
-        <v>9.8299999999999998E-2</v>
+        <v>0.0983</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2576,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>-14</v>
       </c>
@@ -2593,7 +3196,7 @@
         <v>0.1052</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -2602,10 +3205,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>-10</v>
       </c>
@@ -2619,7 +3222,7 @@
         <v>0.1492</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2628,10 +3231,10 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>-6</v>
       </c>
@@ -2642,10 +3245,10 @@
         <v>-82</v>
       </c>
       <c r="D71">
-        <v>0.18129999999999999</v>
+        <v>0.1813</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -2654,10 +3257,10 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>-4</v>
       </c>
@@ -2671,7 +3274,7 @@
         <v>0.2094</v>
       </c>
       <c r="E72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2680,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>-2</v>
       </c>
@@ -2694,10 +3297,10 @@
         <v>-104</v>
       </c>
       <c r="D73">
-        <v>0.21659999999999999</v>
+        <v>0.2166</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -2706,10 +3309,10 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>-2</v>
       </c>
@@ -2723,7 +3326,7 @@
         <v>0.2268</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2732,10 +3335,10 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>0</v>
       </c>
@@ -2746,10 +3349,10 @@
         <v>-164</v>
       </c>
       <c r="D75">
-        <v>0.23100000000000001</v>
+        <v>0.231</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -2758,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>0</v>
       </c>
@@ -2775,7 +3378,7 @@
         <v>0.2455</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -2784,10 +3387,10 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>0</v>
       </c>
@@ -2801,7 +3404,7 @@
         <v>0.2349</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -2810,10 +3413,10 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2827,7 +3430,7 @@
         <v>0.2586</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -2836,10 +3439,10 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2850,10 +3453,10 @@
         <v>-243</v>
       </c>
       <c r="D79">
-        <v>0.29239999999999999</v>
+        <v>0.2924</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -2862,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>0</v>
       </c>
@@ -2876,10 +3479,10 @@
         <v>-253</v>
       </c>
       <c r="D80">
-        <v>0.33879999999999999</v>
+        <v>0.3388</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -2888,10 +3491,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>0</v>
       </c>
@@ -2905,7 +3508,7 @@
         <v>0.3448</v>
       </c>
       <c r="E81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -2914,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>0</v>
       </c>
@@ -2928,10 +3531,10 @@
         <v>-336</v>
       </c>
       <c r="D82">
-        <v>0.36680000000000001</v>
+        <v>0.3668</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -2940,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>0</v>
       </c>
@@ -2954,10 +3557,10 @@
         <v>-391</v>
       </c>
       <c r="D83">
-        <v>0.38679999999999998</v>
+        <v>0.3868</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -2966,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>-6</v>
       </c>
@@ -2980,10 +3583,10 @@
         <v>-85</v>
       </c>
       <c r="D84">
-        <v>0.13420000000000001</v>
+        <v>0.1342</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -2992,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>-6</v>
       </c>
@@ -3009,7 +3612,7 @@
         <v>0.127</v>
       </c>
       <c r="E85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -3018,10 +3621,10 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>-158</v>
       </c>
@@ -3032,10 +3635,10 @@
         <v>-40</v>
       </c>
       <c r="D86">
-        <v>6.1800000000000001E-2</v>
+        <v>0.0618</v>
       </c>
       <c r="E86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3044,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>-200</v>
       </c>
@@ -3058,10 +3661,10 @@
         <v>-40</v>
       </c>
       <c r="D87">
-        <v>0.14480000000000001</v>
+        <v>0.1448</v>
       </c>
       <c r="E87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -3070,10 +3673,10 @@
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>-228</v>
       </c>
@@ -3084,10 +3687,10 @@
         <v>-46</v>
       </c>
       <c r="D88">
-        <v>0.17030000000000001</v>
+        <v>0.1703</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -3096,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>-363</v>
       </c>
@@ -3110,10 +3713,10 @@
         <v>-37</v>
       </c>
       <c r="D89">
-        <v>0.19020000000000001</v>
+        <v>0.1902</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -3122,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>-354</v>
       </c>
@@ -3136,10 +3739,10 @@
         <v>-38</v>
       </c>
       <c r="D90">
-        <v>0.20830000000000001</v>
+        <v>0.2083</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -3148,10 +3751,10 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>-411</v>
       </c>
@@ -3165,7 +3768,7 @@
         <v>0.2757</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F91">
         <v>6</v>
@@ -3174,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>-506</v>
       </c>
@@ -3188,10 +3791,10 @@
         <v>-34</v>
       </c>
       <c r="D92">
-        <v>0.29139999999999999</v>
+        <v>0.2914</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -3200,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>-641</v>
       </c>
@@ -3217,7 +3820,7 @@
         <v>0.4219</v>
       </c>
       <c r="E93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -3226,10 +3829,10 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>-395</v>
       </c>
@@ -3240,10 +3843,10 @@
         <v>-30</v>
       </c>
       <c r="D94">
-        <v>0.29849999999999999</v>
+        <v>0.2985</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F94">
         <v>6</v>
@@ -3252,10 +3855,10 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>-290</v>
       </c>
@@ -3269,7 +3872,7 @@
         <v>0.2722</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -3278,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>-280</v>
       </c>
@@ -3295,7 +3898,7 @@
         <v>0.1726</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F96">
         <v>6</v>
@@ -3304,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>-236</v>
       </c>
@@ -3318,10 +3921,10 @@
         <v>-39</v>
       </c>
       <c r="D97">
-        <v>0.12790000000000001</v>
+        <v>0.1279</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F97">
         <v>6</v>
@@ -3330,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>-187</v>
       </c>
@@ -3344,10 +3947,10 @@
         <v>-41</v>
       </c>
       <c r="D98">
-        <v>7.6600000000000001E-2</v>
+        <v>0.0766</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -3356,10 +3959,10 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>-138</v>
       </c>
@@ -3370,10 +3973,10 @@
         <v>-42</v>
       </c>
       <c r="D99">
-        <v>4.0099999999999997E-2</v>
+        <v>0.0401</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -3382,10 +3985,10 @@
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>-339</v>
       </c>
@@ -3396,10 +3999,10 @@
         <v>-36</v>
       </c>
       <c r="D100">
-        <v>0.23350000000000001</v>
+        <v>0.2335</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -3408,10 +4011,10 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>-430</v>
       </c>
@@ -3422,10 +4025,10 @@
         <v>-29</v>
       </c>
       <c r="D101">
-        <v>0.26279999999999998</v>
+        <v>0.2628</v>
       </c>
       <c r="E101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F101">
         <v>6</v>
@@ -3434,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>-580</v>
       </c>
@@ -3451,7 +4054,7 @@
         <v>0.3866</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F102">
         <v>6</v>
@@ -3460,10 +4063,10 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>-396</v>
       </c>
@@ -3474,10 +4077,10 @@
         <v>-32</v>
       </c>
       <c r="D103">
-        <v>0.22090000000000001</v>
+        <v>0.2209</v>
       </c>
       <c r="E103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -3486,10 +4089,10 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>-142</v>
       </c>
@@ -3500,10 +4103,10 @@
         <v>-52</v>
       </c>
       <c r="D104">
-        <v>5.2400000000000002E-2</v>
+        <v>0.0524</v>
       </c>
       <c r="E104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F104">
         <v>6</v>
@@ -3512,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>-158</v>
       </c>
@@ -3526,10 +4129,10 @@
         <v>-55</v>
       </c>
       <c r="D105">
-        <v>8.2500000000000004E-2</v>
+        <v>0.0825</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F105">
         <v>6</v>
@@ -3538,10 +4141,10 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>-135</v>
       </c>
@@ -3552,10 +4155,10 @@
         <v>-26</v>
       </c>
       <c r="D106">
-        <v>0.11020000000000001</v>
+        <v>0.1102</v>
       </c>
       <c r="E106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F106">
         <v>7</v>
@@ -3564,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>-180</v>
       </c>
@@ -3578,10 +4181,10 @@
         <v>-20</v>
       </c>
       <c r="D107">
-        <v>0.19359999999999999</v>
+        <v>0.1936</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F107">
         <v>7</v>
@@ -3590,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>-244</v>
       </c>
@@ -3604,10 +4207,10 @@
         <v>-13</v>
       </c>
       <c r="D108">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F108">
         <v>7</v>
@@ -3616,10 +4219,10 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>-279</v>
       </c>
@@ -3630,10 +4233,10 @@
         <v>-12</v>
       </c>
       <c r="D109">
-        <v>0.27760000000000001</v>
+        <v>0.2776</v>
       </c>
       <c r="E109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F109">
         <v>7</v>
@@ -3642,10 +4245,10 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>-297</v>
       </c>
@@ -3659,7 +4262,7 @@
         <v>0.3332</v>
       </c>
       <c r="E110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F110">
         <v>7</v>
@@ -3668,10 +4271,10 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>-326</v>
       </c>
@@ -3682,10 +4285,10 @@
         <v>-11</v>
       </c>
       <c r="D111">
-        <v>0.38329999999999997</v>
+        <v>0.3833</v>
       </c>
       <c r="E111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -3694,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>-361</v>
       </c>
@@ -3708,10 +4311,10 @@
         <v>-10</v>
       </c>
       <c r="D112">
-        <v>0.41560000000000002</v>
+        <v>0.4156</v>
       </c>
       <c r="E112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -3720,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>-406</v>
       </c>
@@ -3734,10 +4337,10 @@
         <v>-9</v>
       </c>
       <c r="D113">
-        <v>0.47399999999999998</v>
+        <v>0.474</v>
       </c>
       <c r="E113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F113">
         <v>7</v>
@@ -3746,10 +4349,10 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>-431</v>
       </c>
@@ -3760,10 +4363,10 @@
         <v>-9</v>
       </c>
       <c r="D114">
-        <v>0.49990000000000001</v>
+        <v>0.4999</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F114">
         <v>7</v>
@@ -3772,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>-48</v>
       </c>
@@ -3786,10 +4389,10 @@
         <v>-36</v>
       </c>
       <c r="D115">
-        <v>3.5400000000000001E-2</v>
+        <v>0.0354</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3798,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>-30</v>
       </c>
@@ -3809,10 +4412,10 @@
         <v>-37</v>
       </c>
       <c r="D116">
-        <v>7.6799999999999993E-2</v>
+        <v>0.0768</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3821,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>-23</v>
       </c>
@@ -3832,10 +4435,10 @@
         <v>-37</v>
       </c>
       <c r="D117">
-        <v>0.17019999999999999</v>
+        <v>0.1702</v>
       </c>
       <c r="E117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -3844,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>-20</v>
       </c>
@@ -3855,10 +4458,10 @@
         <v>-36</v>
       </c>
       <c r="D118">
-        <v>0.19650000000000001</v>
+        <v>0.1965</v>
       </c>
       <c r="E118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3867,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>-9</v>
       </c>
@@ -3881,7 +4484,7 @@
         <v>0.1789</v>
       </c>
       <c r="E119" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3890,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>-3</v>
       </c>
@@ -3904,7 +4507,7 @@
         <v>0.2177</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -3913,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>0</v>
       </c>
@@ -3924,10 +4527,10 @@
         <v>-59</v>
       </c>
       <c r="D121">
-        <v>0.27889999999999998</v>
+        <v>0.2789</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -3936,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>0</v>
       </c>
@@ -3947,10 +4550,10 @@
         <v>-70</v>
       </c>
       <c r="D122">
-        <v>0.32179999999999997</v>
+        <v>0.3218</v>
       </c>
       <c r="E122" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3959,7 +4562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>0</v>
       </c>
@@ -3970,10 +4573,10 @@
         <v>-79</v>
       </c>
       <c r="D123">
-        <v>0.38969999999999999</v>
+        <v>0.3897</v>
       </c>
       <c r="E123" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -3982,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>0</v>
       </c>
@@ -3993,10 +4596,10 @@
         <v>-63</v>
       </c>
       <c r="D124">
-        <v>0.15840000000000001</v>
+        <v>0.1584</v>
       </c>
       <c r="E124" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4006,7 +4609,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>